--- a/Mappings/LivingWill - STU3.xlsx
+++ b/Mappings/LivingWill - STU3.xlsx
@@ -871,12 +871,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="10" width="32.5703125" customWidth="1"/>

--- a/Mappings/LivingWill - STU3.xlsx
+++ b/Mappings/LivingWill - STU3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t xml:space="preserve">Zorginformatiebouwsteen – BGZ  </t>
   </si>
@@ -194,13 +194,19 @@
     <t>Anders</t>
   </si>
   <si>
-    <t>No note or comment element available</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consent  </t>
   </si>
   <si>
     <t>No reference available to a Condition resource. Ask Micheal why this concept is needed in the ZIB.</t>
+  </si>
+  <si>
+    <t>Modeling question: leave it open? e.g. Source[X]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be more open with regard to references (Patient/Practitioner/Organization)? </t>
+  </si>
+  <si>
+    <t>No note or comment element available - gForge #13313</t>
   </si>
 </sst>
 </file>
@@ -871,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -920,7 +926,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="40"/>
       <c r="J2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -991,7 +997,9 @@
       <c r="J5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="32" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="18">
@@ -1014,7 +1022,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5">
@@ -1039,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1063,7 +1071,9 @@
       <c r="J8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="26" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Mappings/LivingWill - STU3.xlsx
+++ b/Mappings/LivingWill - STU3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t xml:space="preserve">Zorginformatiebouwsteen – BGZ  </t>
   </si>
@@ -207,13 +207,19 @@
   </si>
   <si>
     <t>No note or comment element available - gForge #13313</t>
+  </si>
+  <si>
+    <t>+ Either a Policy or PolicyRule</t>
+  </si>
+  <si>
+    <t>FHIR constrain:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -254,6 +260,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -457,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -573,6 +586,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1073,6 +1087,16 @@
       </c>
       <c r="K8" s="26" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="K11" s="41" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Mappings/LivingWill - STU3.xlsx
+++ b/Mappings/LivingWill - STU3.xlsx
@@ -10,7 +10,7 @@
     <sheet name="LivingWill" sheetId="1" r:id="rId1"/>
     <sheet name="WilsverklaringTypeCodelijst" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
@@ -568,6 +568,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -586,7 +587,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -908,15 +908,15 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -929,16 +929,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="27"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="3" t="s">
         <v>59</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="35" t="s">
         <v>64</v>
       </c>
     </row>
